--- a/results/gurobi_cplex_comparison/seed_10_k_20.xlsx
+++ b/results/gurobi_cplex_comparison/seed_10_k_20.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.013</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="F2">
-        <v>0.024</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.008999999999999999</v>
+        <v>0.788</v>
       </c>
       <c r="F3">
-        <v>0.022</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.026</v>
+        <v>1.078</v>
       </c>
       <c r="F4">
-        <v>0.033</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.015</v>
+        <v>1.393</v>
       </c>
       <c r="F5">
-        <v>0.041</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03</v>
+        <v>1.786</v>
       </c>
       <c r="F6">
-        <v>0.05</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.042</v>
+        <v>2.212</v>
       </c>
       <c r="F7">
-        <v>0.046</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.051</v>
+        <v>2.723</v>
       </c>
       <c r="F8">
-        <v>0.056</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.027</v>
+        <v>3.149</v>
       </c>
       <c r="F9">
-        <v>0.055</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07099999999999999</v>
+        <v>3.756</v>
       </c>
       <c r="F10">
-        <v>0.154</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.022</v>
+        <v>4.339</v>
       </c>
       <c r="F11">
-        <v>0.057</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.047</v>
+        <v>4.934</v>
       </c>
       <c r="F12">
-        <v>0.081</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.036</v>
+        <v>5.661</v>
       </c>
       <c r="F13">
-        <v>0.06900000000000001</v>
+        <v>1.182</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.099</v>
+        <v>6.372</v>
       </c>
       <c r="F14">
-        <v>113.456</v>
+        <v>64.497</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.075</v>
+        <v>7.146</v>
       </c>
       <c r="F15">
-        <v>69.631</v>
+        <v>54.78</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.043</v>
+        <v>7.948</v>
       </c>
       <c r="F16">
-        <v>101.911</v>
+        <v>107.362</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.331</v>
+        <v>9.19</v>
       </c>
       <c r="F17">
-        <v>126.208</v>
+        <v>94.399</v>
       </c>
     </row>
   </sheetData>
